--- a/medicine/Psychotrope/Institut_des_vins_de_consommation_courante/Institut_des_vins_de_consommation_courante.xlsx
+++ b/medicine/Psychotrope/Institut_des_vins_de_consommation_courante/Institut_des_vins_de_consommation_courante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Institut des vins de consommation courante (IVCC), créé en 1953, était initialement chargé d’étudier et de suggérer toutes dispositions d’ordre économique relatives à l’orientation de la production viticole en France. Il a cessé de fonctionner en 1976.
 </t>
@@ -511,7 +523,9 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet institut fondé le 30 septembre 1953, par le décret (no 53-977) paru au Journal officiel, entra en fonction le 16 avril 1954. Il avait pour mission de proposer aux pouvoirs publics les mesures qui lui paraissent nécessaires pour assurer un équilibre global du marché.
 Implicitement organisé sous la forme d’un établissement public à caractère administratif, l'IVCC prendra la forme d'un établissement public à caractère industriel et commercial le 7 avril 1976 (décret no 77-302) sous le nom d'Office national interprofessionnel des vins de table (ONIVIT). La nature juridique de l'ONIVIT constitue un des éléments de la transformation de l’IVCC. Quand l’organisation commune du marché vitivinicole entra en vigueur le 1er juin 1970 (1, 2), l'institut fut chargé de procéder à l’agrément des vins de table tant pour l’exportation, que pour les vins expédiés aux cinq autres états membres de la Communauté économique européenne.
@@ -543,7 +557,9 @@
           <t>Organisation administrative</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’exécution des missions confiées à l’Institut des vins de consommation courante est assurée par un Conseil interprofessionnel, par une Commission permanente, par le président et le directeur du Conseil interprofessionnel. Les présidents de l'IVCC furent monsieur Roland Maspétiol, de 1954 à 1967, et monsieur Henri Ecal, de 1967 à 1976. Le Conseil interprofessionnel comprend essentiellement des viticulteurs, des producteurs de bois et plants de vigne, des négociants en vins, des représentants des consommateurs, et des fonctionnaires des administrations concernées par les problèmes vitivinicoles. Il peut déléguer une partie de ses pouvoirs à une Commission permanente. En outre, les différents problèmes soumis à l’IVCC sont étudiés par des Commissions spécialisées. Au nombre de quatre ce sont la Commission économique, la Commission des techniques et de la réglementation viticoles, la Commission des bois et plants de vigne et la Commission financière.
 La gestion administrative de l'IVCC est assurée par un directeur (messieurs Jean Long de 1954 à 1972 et Michel Colonna de 1972 à 1976) et par un directeur-adjoint (messieurs Bernard Blanchet de 1954 à 1980 et Georges Mottard de 1955 à 1975).
@@ -579,15 +595,87 @@
           <t>Réalisations dans le cadre national</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Progressivement, l’activité essentiellement technique de l’IVCC s’étend à la gestion économique du potentiel viticole. L’amélioration du vignoble va aller de pair avec l’organisation et le soutien du marché des vins de consommation courante (décrets no 54-955 et no 54-956 du 14 septembre 1954 relatifs, respectivement à l’assainissement de la production viticole et à l’assainissement du marché du vin.)
-Fonctions initiales
-L’élaboration du programme de redressement de la situation viticole nécessitait d’abord une connaissance détaillée de la structure du vignoble. L’IVCC a donc été chargé de procéder à un inventaire approfondi. En fait, le recensement a abouti à l’établissement d’un véritable fichier dénommé alors « cadastre viticole » (décret no 55-671 du 20 mai 1955, article 10.)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Institut_des_vins_de_consommation_courante</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_des_vins_de_consommation_courante</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Réalisations dans le cadre national</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fonctions initiales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’élaboration du programme de redressement de la situation viticole nécessitait d’abord une connaissance détaillée de la structure du vignoble. L’IVCC a donc été chargé de procéder à un inventaire approfondi. En fait, le recensement a abouti à l’établissement d’un véritable fichier dénommé alors « cadastre viticole » (décret no 55-671 du 20 mai 1955, article 10.)
 Préalablement à l’enquête, l’IVCC a fait établir pour chaque vignoble une fiche d’encépagement.
 Le cadastre viticole, réalisé de 1955 à 1957, a donné une photographie de la situation de la production et permis de dégager un certain nombre d’informations. Ces renseignements concernent l’importance du potentiel viticole (nombre d’exploitations et de parcelles, division par tranches de superficie et classes d’âge des viticulteurs), l’implantation suivant les terroirs, la répartition entre diverses catégories qualitatives de production (appellation d’origine contrôlée -AOC, vin délimité de qualité supérieure –VDQS…) et l’encépagement.
-Élargissement des activités
-Outre la tenue à jour du cadastre viticole, l’IVCC a été chargé en 1959  de l’établissement et du contrôle de l’aide aux contrats de stockage privés (ainsi que du règlement des primes correspondantes.) en application de l’article 15 du décret no 59-632.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Institut_des_vins_de_consommation_courante</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_des_vins_de_consommation_courante</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Réalisations dans le cadre national</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Élargissement des activités</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outre la tenue à jour du cadastre viticole, l’IVCC a été chargé en 1959  de l’établissement et du contrôle de l’aide aux contrats de stockage privés (ainsi que du règlement des primes correspondantes.) en application de l’article 15 du décret no 59-632.
 Lorsque les conditions du marché justifient un retrait temporaire des vins pour faire face à une faiblesse des cours due à des disponibilités excédentaires, un stockage contractuel est déclenché. La souscription des contrats est néanmoins réservée aux vins présentant certains critères qualitatifs, tant en matière de degré alcoolique, que d’acidité et caractéristiques analytiques essentielles permettant de prévoir une conservation convenable.
 L’examen des dossiers porte donc, en particulier, sur le contrôle des éléments donnés par le bulletin d’analyse, la concordance des volumes proposés avec ceux des vins analysés, et des quantités bloquées par l’administration des contributions indirectes. Enfin, la vérification porte sur les pouvoirs des signataires des demandes et des titulaires des comptes à créditer, dans les divers cas de situation juridique souvent complexes des intéressés.
 Afin de faciliter dans le temps le soutien du marché, l’IVCC a porté un effort spécial sur l’amélioration de la qualité des vins ordinaires, pour que ceux-ci soient plus facilement commercialisés et à meilleur prix. À ce titre, il a notamment demandé que la souscription des contrats de stockage soit, comme il vient d’être mentionné, subordonnée à certaines normes qualitatives.
@@ -598,35 +686,72 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Institut_des_vins_de_consommation_courante</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Institut_des_vins_de_consommation_courante</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Réalisations dans le cadre communautaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Dès 1er janvier 1958, année de l’entrée en vigueur du traité signé à Rome le 25 mars 1957, l’IVCC participe à l’élaboration de la plupart des dispositions communautaires relatives à l’organisation du marché vitivinicole. Aussi est-il représenté lors de multiples réunions du Conseil des ministres des « Six », et surtout du Groupe vin, du Comité spécial agriculture et du Comité de gestion des vins, ou du Comité des experts viticoles auprès de la Commission des Communautés européennes.
-L’IVCC et les organes spécialisés de la Communauté économique européenne (CEE)
-En plus des principaux rouages institutionnels prévus par l’article 4 du traité de Rome du 25 mars 1957, le développement de l’Europe verte a conduit à la création d’organes supplémentaires. Il existe un Comité de gestion de la CEE pour chaque organisation commune de marché. Dans le secteur du vin, il a été institué par l’article 6 du règlement no 24/62 du 4 avril 1962. Ces comités sont composés de représentants des états membres et présidés par un représentant de la Commission (qui n’a pas le droit de vote). 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès 1er janvier 1958, année de l’entrée en vigueur du traité signé à Rome le 25 mars 1957, l’IVCC participe à l’élaboration de la plupart des dispositions communautaires relatives à l’organisation du marché vitivinicole. Aussi est-il représenté lors de multiples réunions du Conseil des ministres des « Six », et surtout du Groupe vin, du Comité spécial agriculture et du Comité de gestion des vins, ou du Comité des experts viticoles auprès de la Commission des Communautés européennes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Institut_des_vins_de_consommation_courante</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_des_vins_de_consommation_courante</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Réalisations dans le cadre communautaire</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>L’IVCC et les organes spécialisés de la Communauté économique européenne (CEE)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>En plus des principaux rouages institutionnels prévus par l’article 4 du traité de Rome du 25 mars 1957, le développement de l’Europe verte a conduit à la création d’organes supplémentaires. Il existe un Comité de gestion de la CEE pour chaque organisation commune de marché. Dans le secteur du vin, il a été institué par l’article 6 du règlement no 24/62 du 4 avril 1962. Ces comités sont composés de représentants des états membres et présidés par un représentant de la Commission (qui n’a pas le droit de vote). 
 Le Comité spécial agriculture (CSA) a été institué par le Conseil pour l’examen préliminaire des propositions de la Commission européenne. Le CSA est composé des représentants des états membres et exerce son activité depuis septembre 1960. En particulier, le CSA prépare les travaux du Conseil dans le domaine de la politique vitivinicole et de l’organisation commune du marché des vins. 
 Le Comité consultatif vitivinicole, créé par une décision de la Commission européenne du 18 juillet 1962, est un organe interprofessionnel placé auprès de la Commission afin de maintenir entre cette institution et les organisations professionnelles une « collaboration étroite et continue. » Il comprend des viticulteurs individuels ou en caves coopératives, des négociants et des représentants des entreprises de vinification et des industries transformatrices, des travailleurs agricoles et de l’alimentation.
 La Commission européenne consulte le Comité consultatif vitivinicole à son gré ou lorsqu’il demande à l’être. Les délibérations ne sont suivies d’aucun vote. C’est souligner que le Comité n’a pas l’étendue des pouvoirs des autres organes consultatifs. Néanmoins, le Comité consultatif vitivinicole peut servir « d’indicateur de situation » du fait qu’il est composé de professionnels qui auront à appliquer la future réglementation.
